--- a/FinalOutputFolder/20250522_Order_Development_Output_step_metrics_summary.xlsx
+++ b/FinalOutputFolder/20250522_Order_Development_Output_step_metrics_summary.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Step Metrics Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Step Entry-Exit Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DPM Avg Orders per Day" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="DPM Avg MRC per Day" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="DPM Avg Days in Step" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -898,4 +901,3379 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Delivery Project Manager</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1. Order entry and validation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1.9 PMO delivery planning</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2. Delivery planning</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>3. Installation preparation and digging order</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>4. Final design</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>5. Configuration</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>6. Cabling splicing and installation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>7. Service activation</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>8. Ready for service</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>9. Vendor invoice</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Cancelled/terminated/On hold</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Andrew David Lindsey</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Camilla Olesen</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Camilla Villumsen Kaimer</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cecilie Heidner Nielsen</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Christoffer Møller Andersen</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Eva Eisner</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Flemming Skovdal</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Henrik Møller Fyhn</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="H9" t="n">
+        <v>45.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jane Birgitte Høgaard</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>97</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jeppe Mutinda Mbinda</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27</v>
+      </c>
+      <c r="D11" t="n">
+        <v>58</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jesper Olsen</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Julie Lillethorup Kierkegaard</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Kristijan Krsteski</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>36</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Line Skov</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>34</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H15" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Martin Rasmussen</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Merete Helme</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="E17" t="n">
+        <v>21</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="H17" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mette Vinther</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Michael Kronbach Leth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>85</v>
+      </c>
+      <c r="E19" t="n">
+        <v>73.25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G19" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="H19" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="I19" t="n">
+        <v>12</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Morten Skytte</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nanna Søndergaard Skov</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>331.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" t="n">
+        <v>20</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Natascha Orlung Baisgaard Andersen</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" t="n">
+        <v>17</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>38</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Peter Madsen</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Shazia Mobin</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>26</v>
+      </c>
+      <c r="E24" t="n">
+        <v>28</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Signe Fogh Mach Andersen</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Data as of 20250519 - 20250522</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Delivery Project Manager</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1. Order entry and validation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1.9 PMO delivery planning</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2. Delivery planning</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>3. Installation preparation and digging order</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>4. Final design</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>5. Configuration</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>6. Cabling splicing and installation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>7. Service activation</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>8. Ready for service</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>9. Vendor invoice</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Cancelled/terminated/On hold</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Andrew David Lindsey</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23172</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4550</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1453.14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11631.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4130</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Camilla Olesen</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>17000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Camilla Villumsen Kaimer</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5096</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2650</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cecilie Heidner Nielsen</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8835</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-6.64</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8476</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Christoffer Møller Andersen</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31029.88</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6122.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5391.79</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7872.09</v>
+      </c>
+      <c r="I6" t="n">
+        <v>882.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>623.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5198.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Eva Eisner</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3227.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3782.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2122.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5851.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>821.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5420</v>
+      </c>
+      <c r="M7" t="n">
+        <v>797.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Flemming Skovdal</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19909.05</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Henrik Møller Fyhn</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6158</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13801</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9050</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30900</v>
+      </c>
+      <c r="H9" t="n">
+        <v>101570.66</v>
+      </c>
+      <c r="I9" t="n">
+        <v>747</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2073.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10550</v>
+      </c>
+      <c r="M9" t="n">
+        <v>31958.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jane Birgitte Høgaard</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>46412</v>
+      </c>
+      <c r="E10" t="n">
+        <v>34692.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>422.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>79662.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3943.75</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>27000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7848.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jeppe Mutinda Mbinda</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30973.02</v>
+      </c>
+      <c r="D11" t="n">
+        <v>40905.61</v>
+      </c>
+      <c r="E11" t="n">
+        <v>662</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2580.06</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5495</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9785</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7832.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2247.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jesper Olsen</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4095</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4149</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6309</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2650</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16199.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Julie Lillethorup Kierkegaard</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9506.120000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Kristijan Krsteski</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25276</v>
+      </c>
+      <c r="E14" t="n">
+        <v>570</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>11905</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3833</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>975</v>
+      </c>
+      <c r="M14" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Line Skov</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>141.27</v>
+      </c>
+      <c r="E15" t="n">
+        <v>24428</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11633.25</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6916.15</v>
+      </c>
+      <c r="H15" t="n">
+        <v>28220.25</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>348.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4599.03</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Martin Rasmussen</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>35210</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1393</v>
+      </c>
+      <c r="H16" t="n">
+        <v>25259.81</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Merete Helme</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10398.8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13899.85</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5085.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10538</v>
+      </c>
+      <c r="H17" t="n">
+        <v>45236.36</v>
+      </c>
+      <c r="I17" t="n">
+        <v>200</v>
+      </c>
+      <c r="J17" t="n">
+        <v>594.77</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2621.51</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1346.26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mette Vinther</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Michael Kronbach Leth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>116524.92</v>
+      </c>
+      <c r="E19" t="n">
+        <v>75398.32000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5433.12</v>
+      </c>
+      <c r="G19" t="n">
+        <v>74926.25</v>
+      </c>
+      <c r="H19" t="n">
+        <v>18709.75</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1367.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Morten Skytte</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7925</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6460</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1725</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7596.11</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6779.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>817.0599999999999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2459.25</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nanna Søndergaard Skov</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>277340</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12606</v>
+      </c>
+      <c r="E21" t="n">
+        <v>28091.25</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5616.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11093</v>
+      </c>
+      <c r="H21" t="n">
+        <v>15646.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5231.47</v>
+      </c>
+      <c r="J21" t="n">
+        <v>457.25</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4199</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Natascha Orlung Baisgaard Andersen</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1195</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5354</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2047.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-10320.52</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3371.43</v>
+      </c>
+      <c r="I22" t="n">
+        <v>38450</v>
+      </c>
+      <c r="J22" t="n">
+        <v>800</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>175.88</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Peter Madsen</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>55231.74</v>
+      </c>
+      <c r="E23" t="n">
+        <v>33224.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6550</v>
+      </c>
+      <c r="G23" t="n">
+        <v>17605</v>
+      </c>
+      <c r="H23" t="n">
+        <v>35612.45</v>
+      </c>
+      <c r="I23" t="n">
+        <v>17000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>440</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>11964.25</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1728.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Shazia Mobin</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>18648.68</v>
+      </c>
+      <c r="E24" t="n">
+        <v>23204.22</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4174</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8395</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3841.38</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Signe Fogh Mach Andersen</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7184.61</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3018.75</v>
+      </c>
+      <c r="F25" t="n">
+        <v>373.75</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1092.48</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2066.53</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Data as of 20250519 - 20250522</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Delivery Project Manager</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1. Order entry and validation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1.9 PMO delivery planning</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2. Delivery planning</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>3. Installation preparation and digging order</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>4. Final design</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>5. Configuration</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>6. Cabling splicing and installation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>7. Service activation</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>8. Ready for service</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>9. Vendor invoice</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Cancelled/terminated/On hold</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Andrew David Lindsey</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Camilla Olesen</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Camilla Villumsen Kaimer</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cecilie Heidner Nielsen</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Christoffer Møller Andersen</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Eva Eisner</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Flemming Skovdal</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Henrik Møller Fyhn</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jane Birgitte Høgaard</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jeppe Mutinda Mbinda</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jesper Olsen</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Julie Lillethorup Kierkegaard</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Kristijan Krsteski</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Line Skov</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Martin Rasmussen</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Merete Helme</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mette Vinther</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Michael Kronbach Leth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Morten Skytte</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nanna Søndergaard Skov</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Natascha Orlung Baisgaard Andersen</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Peter Madsen</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Shazia Mobin</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Signe Fogh Mach Andersen</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Data as of 20250519 - 20250522</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>